--- a/StructureDefinition-EP-Composition.xlsx
+++ b/StructureDefinition-EP-Composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T00:19:33+00:00</t>
+    <t>2022-05-16T00:37:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EP-Composition.xlsx
+++ b/StructureDefinition-EP-Composition.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5991" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5992" uniqueCount="656">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T00:37:48+00:00</t>
+    <t>2022-05-16T01:16:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1205,24 +1205,17 @@
     <t>Composition.author</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/ePrescription/StructureDefinition/JP_PractitionerRole_ePrescriptionData_author)
+    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Device|Patient|RelatedPerson|Organization)
 </t>
   </si>
   <si>
-    <t>処方医と処方医療機関とへの参照。</t>
-  </si>
-  <si>
-    <t>処方医を表すPractitionerRoleリソースへの参照、および,処方医療機関を表すOrganizationリソースへの参照の2つのReferenceを繰り返す。</t>
+    <t>Who and/or what authored the composition</t>
+  </si>
+  <si>
+    <t>Identifies who is responsible for the information in the composition, not necessarily who typed it in.</t>
   </si>
   <si>
     <t>Identifies who is responsible for the content.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">profile:resolve()}
-</t>
   </si>
   <si>
     <t>Event.performer</t>
@@ -1587,6 +1580,9 @@
     <t>Composition.section</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Composition is broken into sections</t>
   </si>
   <si>
@@ -1658,10 +1654,6 @@
   </si>
   <si>
     <t>Composition.section.author</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Device|Patient|RelatedPerson|Organization)
-</t>
   </si>
   <si>
     <t>Who and/or what authored the section</t>
@@ -1929,6 +1921,10 @@
     <t>本セクションの内容を xhtml 形式のテキストで表現した文字列。内容を省略しても構わない。 
 このデータは人がこのセクションの内容の概略をひと目で把握するためだけに使われるものであり、データ処理対象としてはならない。
 テキストは構造化された情報から自動的にシステムが生成したものとし、それ以上に情報を追加してはならない。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">profile:resolve()}
+</t>
   </si>
   <si>
     <t>medicationRequest</t>
@@ -8824,10 +8820,10 @@
         <v>86</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>382</v>
+        <v>76</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>74</v>
@@ -8836,17 +8832,17 @@
         <v>87</v>
       </c>
       <c r="J57" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K57" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="K57" t="s" s="2">
+      <c r="L57" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O57" t="s" s="2">
         <v>74</v>
@@ -8883,14 +8879,16 @@
         <v>74</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AB57" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>135</v>
+        <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
         <v>381</v>
@@ -8908,24 +8906,24 @@
         <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>388</v>
       </c>
-      <c r="AK57" t="s" s="2">
+      <c r="AM57" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="AL57" t="s" s="2">
+      <c r="AN57" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>392</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -8951,13 +8949,13 @@
         <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M58" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>396</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -9007,7 +9005,7 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>86</v>
@@ -9025,13 +9023,13 @@
         <v>74</v>
       </c>
       <c r="AK58" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AM58" t="s" s="2">
         <v>397</v>
-      </c>
-      <c r="AL58" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="AM58" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>74</v>
@@ -9039,7 +9037,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -9065,13 +9063,13 @@
         <v>106</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>403</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -9100,10 +9098,10 @@
         <v>141</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>74</v>
@@ -9121,7 +9119,7 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>75</v>
@@ -9139,13 +9137,13 @@
         <v>74</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>74</v>
@@ -9153,7 +9151,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -9176,19 +9174,19 @@
         <v>74</v>
       </c>
       <c r="J60" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="K60" t="s" s="2">
+      <c r="M60" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="N60" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="O60" t="s" s="2">
         <v>74</v>
@@ -9237,7 +9235,7 @@
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>75</v>
@@ -9255,13 +9253,13 @@
         <v>74</v>
       </c>
       <c r="AK60" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AM60" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>416</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>74</v>
@@ -9269,7 +9267,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -9381,7 +9379,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -9495,11 +9493,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -9521,10 +9519,10 @@
         <v>129</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M63" t="s" s="2">
         <v>132</v>
@@ -9579,7 +9577,7 @@
         <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>75</v>
@@ -9611,7 +9609,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -9637,14 +9635,14 @@
         <v>106</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="O64" t="s" s="2">
         <v>74</v>
@@ -9672,10 +9670,10 @@
         <v>141</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="Z64" t="s" s="2">
         <v>74</v>
@@ -9693,7 +9691,7 @@
         <v>74</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>86</v>
@@ -9711,10 +9709,10 @@
         <v>74</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>74</v>
@@ -9725,7 +9723,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -9751,14 +9749,14 @@
         <v>371</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="O65" t="s" s="2">
         <v>74</v>
@@ -9807,7 +9805,7 @@
         <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>75</v>
@@ -9825,10 +9823,10 @@
         <v>74</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>74</v>
@@ -9839,7 +9837,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -9862,17 +9860,17 @@
         <v>74</v>
       </c>
       <c r="J66" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>439</v>
-      </c>
-      <c r="K66" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="L66" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="O66" t="s" s="2">
         <v>74</v>
@@ -9921,7 +9919,7 @@
         <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>75</v>
@@ -9939,21 +9937,21 @@
         <v>74</v>
       </c>
       <c r="AK66" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>445</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -9979,16 +9977,16 @@
         <v>240</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="M67" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="L67" t="s" s="2">
+      <c r="N67" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>450</v>
       </c>
       <c r="O67" t="s" s="2">
         <v>74</v>
@@ -10037,7 +10035,7 @@
         <v>74</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>75</v>
@@ -10055,13 +10053,13 @@
         <v>74</v>
       </c>
       <c r="AK67" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AM67" t="s" s="2">
         <v>451</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>74</v>
@@ -10069,7 +10067,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -10092,16 +10090,16 @@
         <v>74</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="M68" t="s" s="2">
         <v>455</v>
-      </c>
-      <c r="L68" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M68" t="s" s="2">
-        <v>457</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -10151,7 +10149,7 @@
         <v>74</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>75</v>
@@ -10169,13 +10167,13 @@
         <v>74</v>
       </c>
       <c r="AK68" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>458</v>
-      </c>
-      <c r="AL68" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AM68" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>74</v>
@@ -10183,7 +10181,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -10295,7 +10293,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -10409,11 +10407,11 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10435,10 +10433,10 @@
         <v>129</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>132</v>
@@ -10493,7 +10491,7 @@
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>75</v>
@@ -10525,7 +10523,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -10551,13 +10549,13 @@
         <v>106</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>467</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -10586,10 +10584,10 @@
         <v>141</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>74</v>
@@ -10607,7 +10605,7 @@
         <v>74</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>86</v>
@@ -10625,13 +10623,13 @@
         <v>74</v>
       </c>
       <c r="AK72" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AM72" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>471</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>472</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>74</v>
@@ -10639,7 +10637,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -10662,13 +10660,13 @@
         <v>74</v>
       </c>
       <c r="J73" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>474</v>
-      </c>
-      <c r="K73" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>476</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -10719,7 +10717,7 @@
         <v>74</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>86</v>
@@ -10737,13 +10735,13 @@
         <v>74</v>
       </c>
       <c r="AK73" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>477</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>478</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>74</v>
@@ -10751,7 +10749,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -10774,19 +10772,19 @@
         <v>87</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M74" t="s" s="2">
         <v>481</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="N74" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>484</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>74</v>
@@ -10835,7 +10833,7 @@
         <v>74</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>75</v>
@@ -10853,13 +10851,13 @@
         <v>74</v>
       </c>
       <c r="AK74" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>485</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>486</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>487</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>74</v>
@@ -10867,7 +10865,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -10979,7 +10977,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -11093,11 +11091,11 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -11119,10 +11117,10 @@
         <v>129</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M77" t="s" s="2">
         <v>132</v>
@@ -11177,7 +11175,7 @@
         <v>74</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>75</v>
@@ -11209,7 +11207,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -11235,13 +11233,13 @@
         <v>209</v>
       </c>
       <c r="K78" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M78" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>494</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
@@ -11270,10 +11268,10 @@
         <v>327</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="Z78" t="s" s="2">
         <v>74</v>
@@ -11291,7 +11289,7 @@
         <v>74</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>75</v>
@@ -11315,7 +11313,7 @@
         <v>266</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>74</v>
@@ -11323,7 +11321,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -11349,10 +11347,10 @@
         <v>234</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -11403,7 +11401,7 @@
         <v>74</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>75</v>
@@ -11427,7 +11425,7 @@
         <v>378</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>74</v>
@@ -11435,7 +11433,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -11461,10 +11459,10 @@
         <v>351</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -11515,7 +11513,7 @@
         <v>74</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>75</v>
@@ -11533,7 +11531,7 @@
         <v>74</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AL80" t="s" s="2">
         <v>126</v>
@@ -11547,7 +11545,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -11558,7 +11556,7 @@
         <v>75</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>382</v>
+        <v>505</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>74</v>
@@ -11570,13 +11568,13 @@
         <v>74</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -11615,7 +11613,7 @@
         <v>74</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AB81" s="2"/>
       <c r="AC81" t="s" s="2">
@@ -11625,7 +11623,7 @@
         <v>135</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>75</v>
@@ -11637,16 +11635,16 @@
         <v>74</v>
       </c>
       <c r="AI81" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK81" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="AJ81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK81" t="s" s="2">
+      <c r="AL81" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>74</v>
@@ -11657,7 +11655,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -11769,7 +11767,7 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -11883,11 +11881,11 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11909,10 +11907,10 @@
         <v>129</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M84" t="s" s="2">
         <v>132</v>
@@ -11967,7 +11965,7 @@
         <v>74</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>75</v>
@@ -11999,11 +11997,11 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -12025,16 +12023,16 @@
         <v>88</v>
       </c>
       <c r="K85" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="L85" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="L85" t="s" s="2">
+      <c r="M85" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="M85" t="s" s="2">
+      <c r="N85" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>74</v>
@@ -12083,7 +12081,7 @@
         <v>74</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>75</v>
@@ -12101,10 +12099,10 @@
         <v>74</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>74</v>
@@ -12115,7 +12113,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -12141,16 +12139,16 @@
         <v>209</v>
       </c>
       <c r="K86" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="L86" t="s" s="2">
         <v>523</v>
       </c>
-      <c r="L86" t="s" s="2">
+      <c r="M86" t="s" s="2">
         <v>524</v>
       </c>
-      <c r="M86" t="s" s="2">
+      <c r="N86" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>74</v>
@@ -12178,11 +12176,11 @@
         <v>327</v>
       </c>
       <c r="X86" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="Y86" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="Y86" t="s" s="2">
-        <v>528</v>
-      </c>
       <c r="Z86" t="s" s="2">
         <v>74</v>
       </c>
@@ -12199,7 +12197,7 @@
         <v>74</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>75</v>
@@ -12231,7 +12229,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -12254,17 +12252,17 @@
         <v>74</v>
       </c>
       <c r="J87" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L87" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O87" t="s" s="2">
         <v>74</v>
@@ -12313,7 +12311,7 @@
         <v>74</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>75</v>
@@ -12331,21 +12329,21 @@
         <v>74</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AL87" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN87" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AM87" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN87" t="s" s="2">
-        <v>392</v>
       </c>
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -12371,13 +12369,13 @@
         <v>351</v>
       </c>
       <c r="K88" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="M88" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" t="s" s="2">
@@ -12427,7 +12425,7 @@
         <v>74</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>75</v>
@@ -12448,7 +12446,7 @@
         <v>74</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>74</v>
@@ -12459,7 +12457,7 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -12485,13 +12483,13 @@
         <v>116</v>
       </c>
       <c r="K89" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="M89" t="s" s="2">
         <v>539</v>
-      </c>
-      <c r="L89" t="s" s="2">
-        <v>540</v>
-      </c>
-      <c r="M89" t="s" s="2">
-        <v>541</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" t="s" s="2">
@@ -12541,7 +12539,7 @@
         <v>74</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>75</v>
@@ -12550,7 +12548,7 @@
         <v>86</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>98</v>
@@ -12559,10 +12557,10 @@
         <v>74</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>74</v>
@@ -12573,7 +12571,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -12599,16 +12597,16 @@
         <v>106</v>
       </c>
       <c r="K90" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="L90" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M90" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="L90" t="s" s="2">
+      <c r="N90" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="M90" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="N90" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="O90" t="s" s="2">
         <v>74</v>
@@ -12636,10 +12634,10 @@
         <v>141</v>
       </c>
       <c r="X90" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="Y90" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="Z90" t="s" s="2">
         <v>74</v>
@@ -12657,7 +12655,7 @@
         <v>74</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>75</v>
@@ -12675,7 +12673,7 @@
         <v>74</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>126</v>
@@ -12689,7 +12687,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -12715,16 +12713,16 @@
         <v>209</v>
       </c>
       <c r="K91" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M91" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="L91" t="s" s="2">
+      <c r="N91" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="M91" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="O91" t="s" s="2">
         <v>74</v>
@@ -12752,10 +12750,10 @@
         <v>110</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>74</v>
@@ -12773,7 +12771,7 @@
         <v>74</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>75</v>
@@ -12791,7 +12789,7 @@
         <v>74</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>126</v>
@@ -12805,7 +12803,7 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -12831,13 +12829,13 @@
         <v>351</v>
       </c>
       <c r="K92" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="M92" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="L92" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
@@ -12887,7 +12885,7 @@
         <v>74</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>75</v>
@@ -12896,7 +12894,7 @@
         <v>76</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>98</v>
@@ -12905,10 +12903,10 @@
         <v>74</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AM92" t="s" s="2">
         <v>74</v>
@@ -12919,7 +12917,7 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -12945,16 +12943,16 @@
         <v>209</v>
       </c>
       <c r="K93" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="M93" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="L93" t="s" s="2">
+      <c r="N93" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="O93" t="s" s="2">
         <v>74</v>
@@ -12982,10 +12980,10 @@
         <v>110</v>
       </c>
       <c r="X93" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="Y93" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="Z93" t="s" s="2">
         <v>74</v>
@@ -13003,7 +13001,7 @@
         <v>74</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>75</v>
@@ -13012,7 +13010,7 @@
         <v>86</v>
       </c>
       <c r="AH93" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AI93" t="s" s="2">
         <v>98</v>
@@ -13021,7 +13019,7 @@
         <v>74</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>126</v>
@@ -13035,7 +13033,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -13061,13 +13059,13 @@
         <v>74</v>
       </c>
       <c r="K94" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="M94" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="L94" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
@@ -13117,7 +13115,7 @@
         <v>74</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>75</v>
@@ -13126,7 +13124,7 @@
         <v>76</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>98</v>
@@ -13135,10 +13133,10 @@
         <v>74</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AM94" t="s" s="2">
         <v>74</v>
@@ -13149,10 +13147,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="C95" t="s" s="2">
         <v>74</v>
@@ -13174,13 +13172,13 @@
         <v>74</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -13231,7 +13229,7 @@
         <v>74</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>75</v>
@@ -13243,16 +13241,16 @@
         <v>74</v>
       </c>
       <c r="AI95" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK95" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="AJ95" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK95" t="s" s="2">
+      <c r="AL95" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="AL95" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>74</v>
@@ -13263,7 +13261,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -13375,7 +13373,7 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -13489,11 +13487,11 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -13515,10 +13513,10 @@
         <v>129</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M98" t="s" s="2">
         <v>132</v>
@@ -13573,7 +13571,7 @@
         <v>74</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>75</v>
@@ -13605,11 +13603,11 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -13631,23 +13629,23 @@
         <v>88</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="M99" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="N99" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P99" s="2"/>
       <c r="Q99" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="R99" t="s" s="2">
         <v>74</v>
@@ -13689,7 +13687,7 @@
         <v>74</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>75</v>
@@ -13707,10 +13705,10 @@
         <v>74</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AM99" t="s" s="2">
         <v>74</v>
@@ -13721,7 +13719,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -13747,16 +13745,16 @@
         <v>209</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="M100" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="N100" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="O100" t="s" s="2">
         <v>74</v>
@@ -13784,11 +13782,11 @@
         <v>327</v>
       </c>
       <c r="X100" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="Y100" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="Y100" t="s" s="2">
-        <v>528</v>
-      </c>
       <c r="Z100" t="s" s="2">
         <v>74</v>
       </c>
@@ -13805,7 +13803,7 @@
         <v>74</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>75</v>
@@ -13837,7 +13835,7 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
@@ -13949,7 +13947,7 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -14063,7 +14061,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -14179,7 +14177,7 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -14291,7 +14289,7 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -14405,7 +14403,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
@@ -14431,10 +14429,10 @@
         <v>100</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="M106" t="s" s="2">
         <v>284</v>
@@ -14447,7 +14445,7 @@
       </c>
       <c r="P106" s="2"/>
       <c r="Q106" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="R106" t="s" s="2">
         <v>74</v>
@@ -14521,7 +14519,7 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -14635,7 +14633,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -14661,10 +14659,10 @@
         <v>106</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" t="s" s="2">
@@ -14675,7 +14673,7 @@
       </c>
       <c r="P108" s="2"/>
       <c r="Q108" t="s" s="2">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="R108" t="s" s="2">
         <v>74</v>
@@ -14749,7 +14747,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -14775,10 +14773,10 @@
         <v>88</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" t="s" s="2">
@@ -14789,7 +14787,7 @@
       </c>
       <c r="P109" s="2"/>
       <c r="Q109" t="s" s="2">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="R109" t="s" s="2">
         <v>74</v>
@@ -14863,7 +14861,7 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B110" s="2"/>
       <c r="C110" t="s" s="2">
@@ -14979,7 +14977,7 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B111" s="2"/>
       <c r="C111" t="s" s="2">
@@ -15095,7 +15093,7 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B112" s="2"/>
       <c r="C112" t="s" s="2">
@@ -15118,17 +15116,17 @@
         <v>74</v>
       </c>
       <c r="J112" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K112" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L112" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="M112" s="2"/>
       <c r="N112" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O112" t="s" s="2">
         <v>74</v>
@@ -15177,7 +15175,7 @@
         <v>74</v>
       </c>
       <c r="AE112" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AF112" t="s" s="2">
         <v>75</v>
@@ -15195,21 +15193,21 @@
         <v>74</v>
       </c>
       <c r="AK112" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AL112" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AM112" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN112" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AM112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN112" t="s" s="2">
-        <v>392</v>
       </c>
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
@@ -15235,13 +15233,13 @@
         <v>351</v>
       </c>
       <c r="K113" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L113" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="M113" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
@@ -15291,7 +15289,7 @@
         <v>74</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>75</v>
@@ -15312,7 +15310,7 @@
         <v>74</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AM113" t="s" s="2">
         <v>74</v>
@@ -15323,7 +15321,7 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B114" s="2"/>
       <c r="C114" t="s" s="2">
@@ -15349,13 +15347,13 @@
         <v>116</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
@@ -15405,7 +15403,7 @@
         <v>74</v>
       </c>
       <c r="AE114" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AF114" t="s" s="2">
         <v>75</v>
@@ -15414,7 +15412,7 @@
         <v>86</v>
       </c>
       <c r="AH114" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AI114" t="s" s="2">
         <v>98</v>
@@ -15423,10 +15421,10 @@
         <v>74</v>
       </c>
       <c r="AK114" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AM114" t="s" s="2">
         <v>74</v>
@@ -15437,7 +15435,7 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B115" s="2"/>
       <c r="C115" t="s" s="2">
@@ -15549,7 +15547,7 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B116" s="2"/>
       <c r="C116" t="s" s="2">
@@ -15663,7 +15661,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B117" s="2"/>
       <c r="C117" t="s" s="2">
@@ -15689,10 +15687,10 @@
         <v>106</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="M117" s="2"/>
       <c r="N117" s="2"/>
@@ -15701,7 +15699,7 @@
       </c>
       <c r="P117" s="2"/>
       <c r="Q117" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R117" t="s" s="2">
         <v>74</v>
@@ -15775,7 +15773,7 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B118" s="2"/>
       <c r="C118" t="s" s="2">
@@ -15801,10 +15799,10 @@
         <v>147</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="M118" t="s" s="2">
         <v>150</v>
@@ -15889,7 +15887,7 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" t="s" s="2">
@@ -15915,16 +15913,16 @@
         <v>106</v>
       </c>
       <c r="K119" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M119" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="L119" t="s" s="2">
+      <c r="N119" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="M119" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="N119" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="O119" t="s" s="2">
         <v>74</v>
@@ -15952,10 +15950,10 @@
         <v>141</v>
       </c>
       <c r="X119" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="Y119" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="Z119" t="s" s="2">
         <v>74</v>
@@ -15973,7 +15971,7 @@
         <v>74</v>
       </c>
       <c r="AE119" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AF119" t="s" s="2">
         <v>75</v>
@@ -15991,7 +15989,7 @@
         <v>74</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>126</v>
@@ -16005,7 +16003,7 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B120" s="2"/>
       <c r="C120" t="s" s="2">
@@ -16031,16 +16029,16 @@
         <v>209</v>
       </c>
       <c r="K120" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M120" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="L120" t="s" s="2">
+      <c r="N120" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="M120" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="N120" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="O120" t="s" s="2">
         <v>74</v>
@@ -16068,10 +16066,10 @@
         <v>110</v>
       </c>
       <c r="X120" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="Y120" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="Z120" t="s" s="2">
         <v>74</v>
@@ -16089,7 +16087,7 @@
         <v>74</v>
       </c>
       <c r="AE120" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AF120" t="s" s="2">
         <v>75</v>
@@ -16107,7 +16105,7 @@
         <v>74</v>
       </c>
       <c r="AK120" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AL120" t="s" s="2">
         <v>126</v>
@@ -16121,7 +16119,7 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B121" s="2"/>
       <c r="C121" t="s" s="2">
@@ -16147,13 +16145,13 @@
         <v>351</v>
       </c>
       <c r="K121" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="M121" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="L121" t="s" s="2">
-        <v>562</v>
-      </c>
-      <c r="M121" t="s" s="2">
-        <v>563</v>
       </c>
       <c r="N121" s="2"/>
       <c r="O121" t="s" s="2">
@@ -16191,7 +16189,7 @@
         <v>74</v>
       </c>
       <c r="AA121" t="s" s="2">
-        <v>387</v>
+        <v>616</v>
       </c>
       <c r="AB121" s="2"/>
       <c r="AC121" t="s" s="2">
@@ -16201,7 +16199,7 @@
         <v>135</v>
       </c>
       <c r="AE121" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AF121" t="s" s="2">
         <v>75</v>
@@ -16210,7 +16208,7 @@
         <v>76</v>
       </c>
       <c r="AH121" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AI121" t="s" s="2">
         <v>98</v>
@@ -16219,10 +16217,10 @@
         <v>74</v>
       </c>
       <c r="AK121" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AL121" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AM121" t="s" s="2">
         <v>74</v>
@@ -16233,10 +16231,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C122" t="s" s="2">
         <v>74</v>
@@ -16258,16 +16256,16 @@
         <v>74</v>
       </c>
       <c r="J122" t="s" s="2">
+        <v>618</v>
+      </c>
+      <c r="K122" t="s" s="2">
         <v>619</v>
       </c>
-      <c r="K122" t="s" s="2">
+      <c r="L122" t="s" s="2">
         <v>620</v>
       </c>
-      <c r="L122" t="s" s="2">
-        <v>621</v>
-      </c>
       <c r="M122" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" t="s" s="2">
@@ -16317,7 +16315,7 @@
         <v>74</v>
       </c>
       <c r="AE122" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AF122" t="s" s="2">
         <v>75</v>
@@ -16326,7 +16324,7 @@
         <v>76</v>
       </c>
       <c r="AH122" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AI122" t="s" s="2">
         <v>98</v>
@@ -16335,10 +16333,10 @@
         <v>74</v>
       </c>
       <c r="AK122" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AL122" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AM122" t="s" s="2">
         <v>74</v>
@@ -16349,7 +16347,7 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B123" s="2"/>
       <c r="C123" t="s" s="2">
@@ -16461,7 +16459,7 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B124" s="2"/>
       <c r="C124" t="s" s="2">
@@ -16575,7 +16573,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B125" s="2"/>
       <c r="C125" t="s" s="2">
@@ -16601,13 +16599,13 @@
         <v>88</v>
       </c>
       <c r="K125" t="s" s="2">
+        <v>624</v>
+      </c>
+      <c r="L125" t="s" s="2">
         <v>625</v>
       </c>
-      <c r="L125" t="s" s="2">
+      <c r="M125" t="s" s="2">
         <v>626</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>627</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
@@ -16657,16 +16655,16 @@
         <v>74</v>
       </c>
       <c r="AE125" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH125" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="AF125" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG125" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH125" t="s" s="2">
-        <v>629</v>
       </c>
       <c r="AI125" t="s" s="2">
         <v>98</v>
@@ -16689,7 +16687,7 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B126" s="2"/>
       <c r="C126" t="s" s="2">
@@ -16715,13 +16713,13 @@
         <v>100</v>
       </c>
       <c r="K126" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="L126" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="L126" t="s" s="2">
+      <c r="M126" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="M126" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" t="s" s="2">
@@ -16750,28 +16748,28 @@
         <v>214</v>
       </c>
       <c r="X126" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="Y126" t="s" s="2">
         <v>634</v>
       </c>
-      <c r="Y126" t="s" s="2">
+      <c r="Z126" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE126" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="Z126" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>636</v>
       </c>
       <c r="AF126" t="s" s="2">
         <v>75</v>
@@ -16803,7 +16801,7 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B127" s="2"/>
       <c r="C127" t="s" s="2">
@@ -16829,13 +16827,13 @@
         <v>188</v>
       </c>
       <c r="K127" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="L127" t="s" s="2">
         <v>638</v>
       </c>
-      <c r="L127" t="s" s="2">
+      <c r="M127" t="s" s="2">
         <v>639</v>
-      </c>
-      <c r="M127" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" t="s" s="2">
@@ -16885,7 +16883,7 @@
         <v>74</v>
       </c>
       <c r="AE127" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AF127" t="s" s="2">
         <v>75</v>
@@ -16903,7 +16901,7 @@
         <v>74</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>74</v>
@@ -16917,7 +16915,7 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B128" s="2"/>
       <c r="C128" t="s" s="2">
@@ -16943,13 +16941,13 @@
         <v>88</v>
       </c>
       <c r="K128" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="L128" t="s" s="2">
         <v>644</v>
       </c>
-      <c r="L128" t="s" s="2">
+      <c r="M128" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
@@ -16999,7 +16997,7 @@
         <v>74</v>
       </c>
       <c r="AE128" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AF128" t="s" s="2">
         <v>75</v>
@@ -17031,7 +17029,7 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" t="s" s="2">
@@ -17057,16 +17055,16 @@
         <v>209</v>
       </c>
       <c r="K129" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="M129" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="L129" t="s" s="2">
+      <c r="N129" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="M129" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N129" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="O129" t="s" s="2">
         <v>74</v>
@@ -17094,10 +17092,10 @@
         <v>110</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="Z129" t="s" s="2">
         <v>74</v>
@@ -17115,7 +17113,7 @@
         <v>74</v>
       </c>
       <c r="AE129" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AF129" t="s" s="2">
         <v>75</v>
@@ -17124,7 +17122,7 @@
         <v>86</v>
       </c>
       <c r="AH129" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AI129" t="s" s="2">
         <v>98</v>
@@ -17133,7 +17131,7 @@
         <v>74</v>
       </c>
       <c r="AK129" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AL129" t="s" s="2">
         <v>126</v>
@@ -17147,7 +17145,7 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B130" s="2"/>
       <c r="C130" t="s" s="2">
@@ -17173,13 +17171,13 @@
         <v>74</v>
       </c>
       <c r="K130" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="M130" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="L130" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="M130" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" t="s" s="2">
@@ -17229,7 +17227,7 @@
         <v>74</v>
       </c>
       <c r="AE130" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AF130" t="s" s="2">
         <v>75</v>
@@ -17238,7 +17236,7 @@
         <v>76</v>
       </c>
       <c r="AH130" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AI130" t="s" s="2">
         <v>98</v>
@@ -17247,10 +17245,10 @@
         <v>74</v>
       </c>
       <c r="AK130" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AL130" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AM130" t="s" s="2">
         <v>74</v>
@@ -17261,10 +17259,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C131" t="s" s="2">
         <v>74</v>
@@ -17286,13 +17284,13 @@
         <v>74</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K131" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="L131" t="s" s="2">
         <v>649</v>
-      </c>
-      <c r="L131" t="s" s="2">
-        <v>650</v>
       </c>
       <c r="M131" s="2"/>
       <c r="N131" s="2"/>
@@ -17343,7 +17341,7 @@
         <v>74</v>
       </c>
       <c r="AE131" t="s" s="2">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AF131" t="s" s="2">
         <v>75</v>
@@ -17355,16 +17353,16 @@
         <v>74</v>
       </c>
       <c r="AI131" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AJ131" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK131" t="s" s="2">
         <v>510</v>
       </c>
-      <c r="AJ131" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK131" t="s" s="2">
+      <c r="AL131" t="s" s="2">
         <v>511</v>
-      </c>
-      <c r="AL131" t="s" s="2">
-        <v>512</v>
       </c>
       <c r="AM131" t="s" s="2">
         <v>74</v>
@@ -17375,7 +17373,7 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B132" s="2"/>
       <c r="C132" t="s" s="2">
@@ -17487,7 +17485,7 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B133" s="2"/>
       <c r="C133" t="s" s="2">
@@ -17601,11 +17599,11 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B134" s="2"/>
       <c r="C134" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -17627,10 +17625,10 @@
         <v>129</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="M134" t="s" s="2">
         <v>132</v>
@@ -17685,7 +17683,7 @@
         <v>74</v>
       </c>
       <c r="AE134" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AF134" t="s" s="2">
         <v>75</v>
@@ -17717,11 +17715,11 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B135" s="2"/>
       <c r="C135" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -17743,23 +17741,23 @@
         <v>88</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="M135" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="N135" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="O135" t="s" s="2">
         <v>74</v>
       </c>
       <c r="P135" s="2"/>
       <c r="Q135" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R135" t="s" s="2">
         <v>74</v>
@@ -17801,7 +17799,7 @@
         <v>74</v>
       </c>
       <c r="AE135" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AF135" t="s" s="2">
         <v>75</v>
@@ -17819,10 +17817,10 @@
         <v>74</v>
       </c>
       <c r="AK135" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="AL135" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="AM135" t="s" s="2">
         <v>74</v>
@@ -17833,7 +17831,7 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B136" s="2"/>
       <c r="C136" t="s" s="2">
@@ -17859,16 +17857,16 @@
         <v>209</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="M136" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="N136" t="s" s="2">
         <v>525</v>
-      </c>
-      <c r="N136" t="s" s="2">
-        <v>526</v>
       </c>
       <c r="O136" t="s" s="2">
         <v>74</v>
@@ -17896,11 +17894,11 @@
         <v>327</v>
       </c>
       <c r="X136" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="Y136" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="Y136" t="s" s="2">
-        <v>528</v>
-      </c>
       <c r="Z136" t="s" s="2">
         <v>74</v>
       </c>
@@ -17917,7 +17915,7 @@
         <v>74</v>
       </c>
       <c r="AE136" t="s" s="2">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AF136" t="s" s="2">
         <v>75</v>
@@ -17949,7 +17947,7 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B137" s="2"/>
       <c r="C137" t="s" s="2">
@@ -18061,7 +18059,7 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B138" s="2"/>
       <c r="C138" t="s" s="2">
@@ -18175,7 +18173,7 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B139" s="2"/>
       <c r="C139" t="s" s="2">
@@ -18291,7 +18289,7 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B140" s="2"/>
       <c r="C140" t="s" s="2">
@@ -18403,7 +18401,7 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B141" s="2"/>
       <c r="C141" t="s" s="2">
@@ -18517,7 +18515,7 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" t="s" s="2">
@@ -18543,10 +18541,10 @@
         <v>100</v>
       </c>
       <c r="K142" t="s" s="2">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="M142" t="s" s="2">
         <v>284</v>
@@ -18559,7 +18557,7 @@
       </c>
       <c r="P142" s="2"/>
       <c r="Q142" t="s" s="2">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="R142" t="s" s="2">
         <v>74</v>
@@ -18633,7 +18631,7 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" t="s" s="2">
@@ -18747,7 +18745,7 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" t="s" s="2">
@@ -18773,10 +18771,10 @@
         <v>106</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="M144" s="2"/>
       <c r="N144" t="s" s="2">
@@ -18787,7 +18785,7 @@
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" t="s" s="2">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="R144" t="s" s="2">
         <v>74</v>
@@ -18861,7 +18859,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -18887,10 +18885,10 @@
         <v>88</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="M145" s="2"/>
       <c r="N145" t="s" s="2">
@@ -18901,7 +18899,7 @@
       </c>
       <c r="P145" s="2"/>
       <c r="Q145" t="s" s="2">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R145" t="s" s="2">
         <v>74</v>
@@ -18975,7 +18973,7 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" t="s" s="2">
@@ -19091,7 +19089,7 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B147" s="2"/>
       <c r="C147" t="s" s="2">
@@ -19207,7 +19205,7 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" t="s" s="2">
@@ -19230,17 +19228,17 @@
         <v>74</v>
       </c>
       <c r="J148" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="K148" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="L148" t="s" s="2">
         <v>530</v>
-      </c>
-      <c r="K148" t="s" s="2">
-        <v>531</v>
-      </c>
-      <c r="L148" t="s" s="2">
-        <v>532</v>
       </c>
       <c r="M148" s="2"/>
       <c r="N148" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="O148" t="s" s="2">
         <v>74</v>
@@ -19289,7 +19287,7 @@
         <v>74</v>
       </c>
       <c r="AE148" t="s" s="2">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AF148" t="s" s="2">
         <v>75</v>
@@ -19307,21 +19305,21 @@
         <v>74</v>
       </c>
       <c r="AK148" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="AL148" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AM148" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AN148" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="AM148" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AN148" t="s" s="2">
-        <v>392</v>
       </c>
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B149" s="2"/>
       <c r="C149" t="s" s="2">
@@ -19347,13 +19345,13 @@
         <v>351</v>
       </c>
       <c r="K149" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L149" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="M149" t="s" s="2">
         <v>534</v>
-      </c>
-      <c r="L149" t="s" s="2">
-        <v>535</v>
-      </c>
-      <c r="M149" t="s" s="2">
-        <v>536</v>
       </c>
       <c r="N149" s="2"/>
       <c r="O149" t="s" s="2">
@@ -19403,7 +19401,7 @@
         <v>74</v>
       </c>
       <c r="AE149" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AF149" t="s" s="2">
         <v>75</v>
@@ -19424,7 +19422,7 @@
         <v>74</v>
       </c>
       <c r="AL149" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AM149" t="s" s="2">
         <v>74</v>
@@ -19435,7 +19433,7 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" t="s" s="2">
@@ -19461,13 +19459,13 @@
         <v>116</v>
       </c>
       <c r="K150" t="s" s="2">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="N150" s="2"/>
       <c r="O150" t="s" s="2">
@@ -19517,7 +19515,7 @@
         <v>74</v>
       </c>
       <c r="AE150" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="AF150" t="s" s="2">
         <v>75</v>
@@ -19526,7 +19524,7 @@
         <v>86</v>
       </c>
       <c r="AH150" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AI150" t="s" s="2">
         <v>98</v>
@@ -19535,10 +19533,10 @@
         <v>74</v>
       </c>
       <c r="AK150" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AL150" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="AM150" t="s" s="2">
         <v>74</v>
@@ -19549,7 +19547,7 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" t="s" s="2">
@@ -19661,7 +19659,7 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" t="s" s="2">
@@ -19775,7 +19773,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" t="s" s="2">
@@ -19801,10 +19799,10 @@
         <v>106</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="M153" s="2"/>
       <c r="N153" s="2"/>
@@ -19813,7 +19811,7 @@
       </c>
       <c r="P153" s="2"/>
       <c r="Q153" t="s" s="2">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="R153" t="s" s="2">
         <v>74</v>
@@ -19887,7 +19885,7 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" t="s" s="2">
@@ -19913,10 +19911,10 @@
         <v>147</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="M154" t="s" s="2">
         <v>150</v>
@@ -20001,7 +19999,7 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B155" s="2"/>
       <c r="C155" t="s" s="2">
@@ -20027,16 +20025,16 @@
         <v>106</v>
       </c>
       <c r="K155" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="L155" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="M155" t="s" s="2">
         <v>545</v>
       </c>
-      <c r="L155" t="s" s="2">
+      <c r="N155" t="s" s="2">
         <v>546</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>547</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>548</v>
       </c>
       <c r="O155" t="s" s="2">
         <v>74</v>
@@ -20064,10 +20062,10 @@
         <v>141</v>
       </c>
       <c r="X155" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="Y155" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="Z155" t="s" s="2">
         <v>74</v>
@@ -20085,7 +20083,7 @@
         <v>74</v>
       </c>
       <c r="AE155" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="AF155" t="s" s="2">
         <v>75</v>
@@ -20103,7 +20101,7 @@
         <v>74</v>
       </c>
       <c r="AK155" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="AL155" t="s" s="2">
         <v>126</v>
@@ -20117,7 +20115,7 @@
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B156" s="2"/>
       <c r="C156" t="s" s="2">
@@ -20143,16 +20141,16 @@
         <v>209</v>
       </c>
       <c r="K156" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="L156" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M156" t="s" s="2">
         <v>553</v>
       </c>
-      <c r="L156" t="s" s="2">
+      <c r="N156" t="s" s="2">
         <v>554</v>
-      </c>
-      <c r="M156" t="s" s="2">
-        <v>555</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>556</v>
       </c>
       <c r="O156" t="s" s="2">
         <v>74</v>
@@ -20180,10 +20178,10 @@
         <v>110</v>
       </c>
       <c r="X156" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="Y156" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="Z156" t="s" s="2">
         <v>74</v>
@@ -20201,7 +20199,7 @@
         <v>74</v>
       </c>
       <c r="AE156" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="AF156" t="s" s="2">
         <v>75</v>
@@ -20219,7 +20217,7 @@
         <v>74</v>
       </c>
       <c r="AK156" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="AL156" t="s" s="2">
         <v>126</v>
@@ -20233,7 +20231,7 @@
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B157" s="2"/>
       <c r="C157" t="s" s="2">
@@ -20256,16 +20254,16 @@
         <v>74</v>
       </c>
       <c r="J157" t="s" s="2">
+        <v>652</v>
+      </c>
+      <c r="K157" t="s" s="2">
         <v>653</v>
       </c>
-      <c r="K157" t="s" s="2">
-        <v>654</v>
-      </c>
       <c r="L157" t="s" s="2">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="M157" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="N157" s="2"/>
       <c r="O157" t="s" s="2">
@@ -20315,7 +20313,7 @@
         <v>74</v>
       </c>
       <c r="AE157" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="AF157" t="s" s="2">
         <v>75</v>
@@ -20324,7 +20322,7 @@
         <v>76</v>
       </c>
       <c r="AH157" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AI157" t="s" s="2">
         <v>98</v>
@@ -20333,10 +20331,10 @@
         <v>74</v>
       </c>
       <c r="AK157" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="AL157" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="AM157" t="s" s="2">
         <v>74</v>
@@ -20347,7 +20345,7 @@
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B158" s="2"/>
       <c r="C158" t="s" s="2">
@@ -20459,7 +20457,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20573,7 +20571,7 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -20599,13 +20597,13 @@
         <v>88</v>
       </c>
       <c r="K160" t="s" s="2">
+        <v>654</v>
+      </c>
+      <c r="L160" t="s" s="2">
         <v>655</v>
       </c>
-      <c r="L160" t="s" s="2">
-        <v>656</v>
-      </c>
       <c r="M160" t="s" s="2">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" t="s" s="2">
@@ -20655,16 +20653,16 @@
         <v>74</v>
       </c>
       <c r="AE160" t="s" s="2">
+        <v>627</v>
+      </c>
+      <c r="AF160" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG160" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH160" t="s" s="2">
         <v>628</v>
-      </c>
-      <c r="AF160" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG160" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH160" t="s" s="2">
-        <v>629</v>
       </c>
       <c r="AI160" t="s" s="2">
         <v>98</v>
@@ -20687,7 +20685,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B161" s="2"/>
       <c r="C161" t="s" s="2">
@@ -20713,13 +20711,13 @@
         <v>100</v>
       </c>
       <c r="K161" t="s" s="2">
+        <v>630</v>
+      </c>
+      <c r="L161" t="s" s="2">
         <v>631</v>
       </c>
-      <c r="L161" t="s" s="2">
+      <c r="M161" t="s" s="2">
         <v>632</v>
-      </c>
-      <c r="M161" t="s" s="2">
-        <v>633</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
@@ -20748,28 +20746,28 @@
         <v>214</v>
       </c>
       <c r="X161" t="s" s="2">
+        <v>633</v>
+      </c>
+      <c r="Y161" t="s" s="2">
         <v>634</v>
       </c>
-      <c r="Y161" t="s" s="2">
+      <c r="Z161" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA161" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB161" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC161" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD161" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE161" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="Z161" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA161" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB161" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC161" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD161" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE161" t="s" s="2">
-        <v>636</v>
       </c>
       <c r="AF161" t="s" s="2">
         <v>75</v>
@@ -20801,7 +20799,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -20827,13 +20825,13 @@
         <v>188</v>
       </c>
       <c r="K162" t="s" s="2">
+        <v>637</v>
+      </c>
+      <c r="L162" t="s" s="2">
         <v>638</v>
       </c>
-      <c r="L162" t="s" s="2">
+      <c r="M162" t="s" s="2">
         <v>639</v>
-      </c>
-      <c r="M162" t="s" s="2">
-        <v>640</v>
       </c>
       <c r="N162" s="2"/>
       <c r="O162" t="s" s="2">
@@ -20883,7 +20881,7 @@
         <v>74</v>
       </c>
       <c r="AE162" t="s" s="2">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AF162" t="s" s="2">
         <v>75</v>
@@ -20901,7 +20899,7 @@
         <v>74</v>
       </c>
       <c r="AK162" t="s" s="2">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="AL162" t="s" s="2">
         <v>74</v>
@@ -20915,7 +20913,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -20941,13 +20939,13 @@
         <v>88</v>
       </c>
       <c r="K163" t="s" s="2">
+        <v>643</v>
+      </c>
+      <c r="L163" t="s" s="2">
         <v>644</v>
       </c>
-      <c r="L163" t="s" s="2">
+      <c r="M163" t="s" s="2">
         <v>645</v>
-      </c>
-      <c r="M163" t="s" s="2">
-        <v>646</v>
       </c>
       <c r="N163" s="2"/>
       <c r="O163" t="s" s="2">
@@ -20997,7 +20995,7 @@
         <v>74</v>
       </c>
       <c r="AE163" t="s" s="2">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="AF163" t="s" s="2">
         <v>75</v>
@@ -21029,7 +21027,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21055,16 +21053,16 @@
         <v>209</v>
       </c>
       <c r="K164" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="L164" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="M164" t="s" s="2">
         <v>568</v>
       </c>
-      <c r="L164" t="s" s="2">
+      <c r="N164" t="s" s="2">
         <v>569</v>
-      </c>
-      <c r="M164" t="s" s="2">
-        <v>570</v>
-      </c>
-      <c r="N164" t="s" s="2">
-        <v>571</v>
       </c>
       <c r="O164" t="s" s="2">
         <v>74</v>
@@ -21092,10 +21090,10 @@
         <v>110</v>
       </c>
       <c r="X164" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="Y164" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="Z164" t="s" s="2">
         <v>74</v>
@@ -21113,7 +21111,7 @@
         <v>74</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>75</v>
@@ -21122,7 +21120,7 @@
         <v>86</v>
       </c>
       <c r="AH164" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="AI164" t="s" s="2">
         <v>98</v>
@@ -21131,7 +21129,7 @@
         <v>74</v>
       </c>
       <c r="AK164" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="AL164" t="s" s="2">
         <v>126</v>
@@ -21145,7 +21143,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21171,13 +21169,13 @@
         <v>74</v>
       </c>
       <c r="K165" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="L165" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="M165" t="s" s="2">
         <v>576</v>
-      </c>
-      <c r="L165" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="M165" t="s" s="2">
-        <v>578</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" t="s" s="2">
@@ -21227,7 +21225,7 @@
         <v>74</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>75</v>
@@ -21236,7 +21234,7 @@
         <v>76</v>
       </c>
       <c r="AH165" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="AI165" t="s" s="2">
         <v>98</v>
@@ -21245,10 +21243,10 @@
         <v>74</v>
       </c>
       <c r="AK165" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AL165" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="AM165" t="s" s="2">
         <v>74</v>

--- a/StructureDefinition-EP-Composition.xlsx
+++ b/StructureDefinition-EP-Composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T01:16:16+00:00</t>
+    <t>2022-05-16T01:43:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EP-Composition.xlsx
+++ b/StructureDefinition-EP-Composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T01:43:18+00:00</t>
+    <t>2022-05-16T01:51:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EP-Composition.xlsx
+++ b/StructureDefinition-EP-Composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T01:51:29+00:00</t>
+    <t>2022-05-16T02:01:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EP-Composition.xlsx
+++ b/StructureDefinition-EP-Composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T02:01:05+00:00</t>
+    <t>2022-05-16T02:10:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EP-Composition.xlsx
+++ b/StructureDefinition-EP-Composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T02:10:26+00:00</t>
+    <t>2022-05-16T02:20:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EP-Composition.xlsx
+++ b/StructureDefinition-EP-Composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T02:20:03+00:00</t>
+    <t>2022-05-16T02:38:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EP-Composition.xlsx
+++ b/StructureDefinition-EP-Composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T02:38:18+00:00</t>
+    <t>2022-05-16T06:42:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EP-Composition.xlsx
+++ b/StructureDefinition-EP-Composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T06:42:02+00:00</t>
+    <t>2022-05-16T08:40:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-EP-Composition.xlsx
+++ b/StructureDefinition-EP-Composition.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-16T08:40:37+00:00</t>
+    <t>2022-05-16T09:08:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
